--- a/data/long_bre/P24_9-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_9-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,53%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>-14,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,72%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,32</t>
+          <t>1,02; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,11</t>
+          <t>-5,28; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,76</t>
+          <t>-2,83; 4,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 256,63</t>
+          <t>-3,58; 3,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 24,59</t>
+          <t>16,72; 242,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 68,18</t>
+          <t>-44,78; 29,36</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-23,96; 73,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-35,31; 60,26</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,75%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,95</t>
+          <t>-8,97; 0,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,11</t>
+          <t>-5,77; 6,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 3,0</t>
+          <t>-8,99; 1,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 1,21</t>
+          <t>-6,24; 7,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 9,51</t>
+          <t>-10,1; 0,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 3,87</t>
+          <t>-7,12; 8,91</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 1,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 10,45</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27,81%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,23</t>
+          <t>-3,67; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 5,63</t>
+          <t>-5,08; 5,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,71</t>
+          <t>-1,53; 6,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 42,14</t>
+          <t>-6,8; 4,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 74,97</t>
+          <t>-32,6; 47,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 87,92</t>
+          <t>-35,69; 69,52</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-14,68; 88,14</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-33,67; 39,12</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>149,81%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 475,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,1; 23,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 53,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>144,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-27,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-17,64%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 4,61</t>
+          <t>0,82; 11,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 14,66</t>
+          <t>-11,66; 2,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 9,49</t>
+          <t>-4,07; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 5,35</t>
+          <t>-8,65; 3,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 21,06</t>
+          <t>-14,8; 480,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 12,95</t>
+          <t>-63,12; 30,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-35,33; 49,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-57,14; 46,57</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,62%</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,21%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,5%</t>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-6,2%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 2,7</t>
+          <t>-10,52; 4,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 4,3</t>
+          <t>-2,75; 12,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 1,45</t>
+          <t>-3,5; 9,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,03; 38,67</t>
+          <t>-12,24; 3,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 55,49</t>
+          <t>-12,03; 4,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 18,2</t>
+          <t>-3,34; 17,57</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 12,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-15,46; 4,97</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>465,23%</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>-16,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>-7,21%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-20,0%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50,95%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 10,26</t>
+          <t>-9,38; 2,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 15,37</t>
+          <t>-6,11; 3,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 10,56</t>
+          <t>-8,36; 2,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 13,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 536,01</t>
+          <t>-57,23; 34,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 330,19</t>
+          <t>-46,83; 49,57</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-49,9; 38,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 134,93</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,7; -0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 5,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>402,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>71,84%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>52,36%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>135,54%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 14,53</t>
+          <t>0,04; 7,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 13,75</t>
+          <t>-3,88; 14,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 9,34</t>
+          <t>-4,61; 11,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 443,32</t>
+          <t>-0,87; 12,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 513,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-49,82; 214,22</t>
+          <t>-42,2; 527,91</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-48,83; 348,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-28,58; 793,47</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>129,54%</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-16,65%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>-12,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,82</t>
+          <t>-17,27; 0,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,31</t>
+          <t>-22,93; 0,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,51</t>
+          <t>-16,1; 4,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>34,11; 254,85</t>
+          <t>-17,28; 6,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 15,33</t>
+          <t>-18,75; 0,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 48,85</t>
+          <t>-25,88; 0,53</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; 4,98</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 7,99</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>96,1%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>34,87%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -0,69</t>
+          <t>-3,28; 13,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,2</t>
+          <t>-3,22; 13,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,89</t>
+          <t>-4,75; 9,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -0,86</t>
+          <t>-9,88; 9,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 8,22</t>
+          <t>-30,17; 308,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 3,7</t>
+          <t>-44,13; 603,41</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-50,48; 226,94</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-61,73; 179,63</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 36,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 50,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 30,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>123,88%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-13,41%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 7,18</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 1,76</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,53</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,9</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>28,29; 249,76</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-38,83; 20,01</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 50,91</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-30,66; 39,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-4,35</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-5,04%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-2,0%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; -0,41</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 5,05</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 2,05</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 2,92</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; -0,48</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 6,69</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 2,56</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 3,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,86%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 2,83</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 4,34</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 3,23</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 6,57</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-31,05; 33,38</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-20,3; 52,29</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; 35,88</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 55,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
